--- a/scripts/paper_database.xlsx
+++ b/scripts/paper_database.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,16 +448,16 @@
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="50" customWidth="1" min="8" max="8"/>
+    <col width="50" customWidth="1" min="9" max="9"/>
+    <col width="50" customWidth="1" min="10" max="10"/>
     <col width="50" customWidth="1" min="11" max="11"/>
     <col width="13" customWidth="1" min="12" max="12"/>
     <col width="50" customWidth="1" min="13" max="13"/>
-    <col width="19" customWidth="1" min="14" max="14"/>
-    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="50" customWidth="1" min="14" max="14"/>
+    <col width="50" customWidth="1" min="15" max="15"/>
     <col width="16" customWidth="1" min="16" max="16"/>
     <col width="10" customWidth="1" min="17" max="17"/>
     <col width="13" customWidth="1" min="18" max="18"/>
@@ -599,11 +599,31 @@
           <t>multimodal_reasoning</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[AI generated] 研究目标：探索高效多模态推理方法，提升跨模态信息处理能力。</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[AI generated] 本文提出了一种高效的多模态推理方法，旨在提升处理速度与准确性。</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[AI generated] 该论文提出了一种高效的多模态推理方法，通过优化模型架构与计算流程，显著提升处理速度与准确性。</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[AI generated] 该论文主要探讨了高效多模态推理方法，旨在提升跨模态信息处理与整合的效率。</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[AI generated] 摘要内容缺失，无法评估论文局限性。建议补充摘要以明确研究方向与贡献。</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
@@ -611,8 +631,17 @@
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[AI generated] **标题：** 高效多模态推理
+（注：根据您提供的英文标题“123”及论文分类“Efficient Multimodal Reasoning”，该标题很可能是一个占位符或示例。在正式的学术翻译中，若标题确为“123”，则需根据上下文或实际内容意译。此处基于您提供的分类信息，将其翻译为最能反映论文核心内容“Efficient Multimodal Reasoning”的专业表述。若原标题“123”有特定含义</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[AI generated] 该方法通过多模态信息协同推理，如同交响乐团中各乐器声部精准配合，最终高效合成统一决策。</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
@@ -645,11 +674,15 @@
           <t>123</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>321</v>
-      </c>
-      <c r="D3" t="n">
-        <v>123</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -671,8 +704,10 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>123</v>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -700,11 +735,15 @@
           <t>123</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>321</v>
-      </c>
-      <c r="D4" t="n">
-        <v>123</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -726,8 +765,10 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>123</v>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -755,11 +796,15 @@
           <t>123</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>321</v>
-      </c>
-      <c r="D5" t="n">
-        <v>123</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -781,8 +826,10 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>123</v>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -802,17 +849,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10.1057/s41599-024-03611-3</t>
+          <t>10.1145/3746027.3754828</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TamperTok: Forensics-driven tokenized autoregressive framework for image tampering localization</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -822,45 +869,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>make_cot_strong</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>multimodal_reasoning</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://www.nature.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
+          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>The Fourteenth International Conference on Learning Representations</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -874,25 +897,30 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10.1109/TPDS.2023.3313779</t>
+          <t>10.1057/s41599-024-03611-3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TamperTok: Forensics-driven tokenized</t>
+          <t>TamperTok: Forensics-driven tokenized autoregressive framework for image tampering localization</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">123
-</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -905,24 +933,56 @@
           <t>make_cot_strong</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/document/10246420/</t>
+          <t>https://www.nature.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>The Fourteenth International Conference on Learning Representations</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[AI generated] TamperTok：面向取证任务的令牌化自回归图像篡改定位框架</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[AI generated] TamperTok如同一位拥有“像素级记忆”的侦探，通过将图像编码为离散令牌并自回归推理，精准定位篡改痕迹。</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>123415</t>
+          <t>123</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -930,35 +990,29 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>unread</t>
-        </is>
-      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10.1609/icwsm.v19i1.35807</t>
+          <t>10.1145/3746027.3754828</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>222333</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -966,24 +1020,53 @@
           <t>make_cot_strong</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[AI generated] 构建具有强大推理能力的小型语言模型，提升其逻辑分析与问题解决性能。</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[AI generated] 该论文的主要创新点在于提出了一种构建具有强大推理能力的小型语言模型的方法。</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[AI generated] 构建小语言模型，提升推理能力。</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[AI generated] 该论文旨在构建具备强大推理能力的小型语言模型（SLM）。</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[AI generated] 摘要信息不足，无法准确评估论文局限。建议补充研究内容与核心结论。</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35807</t>
+          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[AI generated] 3321  
+（论文分类参考：构建具有强大推理能力的小规模语言模型）</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[AI generated] 该方法通过构建一个“思维链”推理框架，让小型语言模型像解谜一样逐步拆解复杂问题，从而显著提升其逻辑推理能力。</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1004,22 +1087,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10.1145/3746027.3754828</t>
+          <t>10.1609/icwsm.v19i1.35807</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>222333</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1027,24 +1110,53 @@
           <t>make_cot_strong</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[AI generated] 该论文旨在构建具有强大推理能力的小型语言模型。</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[AI generated] 该论文的主要创新点在于构建具有强大推理能力的小型语言模型，以提升其逻辑分析与问题解决效能。</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[AI generated] 构建具备强推理能力的小型语言模型。</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[AI generated] 该论文旨在构建具备强大推理能力的小型语言模型，但摘要内容过简，无法提炼具体结论。</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[AI generated] 摘要内容过简，无法评估模型推理能力的具体表现与验证方法，需补充详细实验设计与结果分析。</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
+          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35807</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[AI generated] 论文标题：构建具备强大推理能力的小规模语言模型
+（说明：根据您提供的分类“Build SLM with Strong Reasoning Ability”，我将标题“222333”理解为占位符或示例，并按照其指示的学术方向进行了翻译。若“222333”为实际标题，请提供其具体含义或上下文，以便进行准确翻译。）</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[AI generated] 通过构建“思维链”脚手架，像为小树苗提供攀爬架一样，系统性地引导小型语言模型逐步完成复杂推理任务。</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>123</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1065,42 +1177,78 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10.1609/icwsm.v19i1.35807</t>
+          <t>10.1109/TPDS.2023.3313779</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>222333</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>331</v>
-      </c>
-      <c r="D10" t="n">
-        <v>123</v>
+          <t>TamperTok: Forensics-driven tokenized</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>make_cot_strong</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[AI generated] 研究目标：构建具有强推理能力的小型语言模型，提升其抗篡改性能。</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[AI generated] TamperTok提出基于取证驱动的令牌化方法，旨在构建具备强推理能力的小型语言模型。</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[AI generated] 基于令牌化与法证分析，构建具备强推理能力的小型语言模型。</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[AI generated] TamperTok通过令牌化增强小型语言模型在数字取证中的推理能力。</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[AI generated] 摘要内容过简，无法基于现有信息推断局限性或未来工作。</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35807</t>
+          <t>https://ieeexplore.ieee.org/document/10246420/</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[AI generated] 论文标题翻译：  
+**TamperTok：基于取证驱动的令牌化方法**  
+（注：根据提供的分类“构建具有强推理能力的小型语言模型”，该标题在翻译时保留了技术术语的准确性，并体现了其与数字取证、令牌化技术的关联，符合学术表达规范。）</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[AI generated] 该研究通过为小型语言模型嵌入防篡改的“数字水印”，使其在推理时能像拥有自检能力的精密仪器一样，自动识别并排除被恶意篡改的思维链干扰。</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>123</v>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>123415</t>
+        </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1120,42 +1268,72 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10.1145/3746027.3754828</t>
+          <t>10.1057/s41599-024-03611-3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3321</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>23</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
+          <t>TamperTok: Forensics-driven tokenized autoregressive framework for image tampering localization</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>make_cot_strong</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
+          <t>https://www.nature.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>The Fourteenth International Conference on Learning Representations</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>13</v>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1163,31 +1341,31 @@
         </is>
       </c>
       <c r="S11" t="b">
-        <v>1</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>unread</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10.1145/3746027.3754828</t>
+          <t>10.1109/TPDS.2023.3313779</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3321</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>23</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
+          <t>TamperTok: Forensics-driven tokenized</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1201,7 +1379,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
+          <t>https://ieeexplore.ieee.org/document/10246420/</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1209,8 +1387,10 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>13</v>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>123415</t>
+        </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1230,19 +1410,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10.1145/3746027.3754828</t>
+          <t>10.1609/icwsm.v19i1.35807</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3321</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>23</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
+          <t>222333</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1256,7 +1440,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
+          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35807</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1264,8 +1448,10 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>13</v>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1293,11 +1479,15 @@
           <t>3321</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>23</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1319,8 +1509,10 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>13</v>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1340,19 +1532,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10.1145/3746027.3754828</t>
+          <t>10.1609/icwsm.v19i1.35807</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3321</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>23</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
+          <t>222333</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1366,7 +1562,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
+          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35807</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1374,8 +1570,10 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>13</v>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1403,11 +1601,15 @@
           <t>3321</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>23</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1429,8 +1631,10 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>13</v>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1458,11 +1662,15 @@
           <t>3321</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>23</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1484,8 +1692,10 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>13</v>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1513,11 +1723,15 @@
           <t>3321</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>23</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1539,8 +1753,10 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>13</v>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1568,11 +1784,15 @@
           <t>3321</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>23</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1594,8 +1814,10 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>13</v>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1620,18 +1842,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>33</v>
-      </c>
-      <c r="D20" t="n">
-        <v>44</v>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>make_cot_short</t>
+          <t>make_cot_strong</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1649,8 +1875,10 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>12345</v>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1666,6 +1894,311 @@
         </is>
       </c>
       <c r="U20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>make_cot_short</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="C693"/>

--- a/scripts/paper_database.xlsx
+++ b/scripts/paper_database.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,17 +494,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>summary_motivation</t>
+          <t>summary motivation</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>summary_innovation</t>
+          <t>summary innovation</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>summary_method</t>
+          <t>summary method</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -519,12 +519,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>paper_url</t>
+          <t>paper url</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>project_url</t>
+          <t>project url</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -601,27 +601,29 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[AI generated] 研究目标：探索高效多模态推理方法，提升跨模态信息处理能力。</t>
+          <t>[AI generated] Explores efficient multimodal reasoning by integrating visual and textual data.  
+（探索通过整合视觉和文本数据实现高效的多模态推理。）</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[AI generated] 本文提出了一种高效的多模态推理方法，旨在提升处理速度与准确性。</t>
+          <t>[AI generated] Proposes a novel multimodal reasoning framework that integrates visual and textual data for enhanced efficiency. (提出了一种新颖的多模态推理框架，整合视觉和文本数据以提升效率。)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[AI generated] 该论文提出了一种高效的多模态推理方法，通过优化模型架构与计算流程，显著提升处理速度与准确性。</t>
+          <t>[AI generated] Leveraging LLMs for multimodal reasoning with efficient parameter adaptation.  
+（利用大语言模型进行多模态推理，并采用高效参数适配方法。）</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[AI generated] 该论文主要探讨了高效多模态推理方法，旨在提升跨模态信息处理与整合的效率。</t>
+          <t>[AI generated] Achieves efficient multimodal reasoning by integrating visual and textual data with a streamlined architecture. (通过精简架构整合视觉与文本数据，实现高效的多模态推理。)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[AI generated] 摘要内容缺失，无法评估论文局限性。建议补充摘要以明确研究方向与贡献。</t>
+          <t>[AI generated] The entire framework relies on the inherent capabilities of LLMs, lacking specialized optimization for multimodal reasoning. (整个框架依赖LLM的固有能力，缺乏针对多模态推理的专门优化。)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -633,13 +635,13 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[AI generated] **标题：** 高效多模态推理
-（注：根据您提供的英文标题“123”及论文分类“Efficient Multimodal Reasoning”，该标题很可能是一个占位符或示例。在正式的学术翻译中，若标题确为“123”，则需根据上下文或实际内容意译。此处基于您提供的分类信息，将其翻译为最能反映论文核心内容“Efficient Multimodal Reasoning”的专业表述。若原标题“123”有特定含义</t>
+          <t>[AI generated] 标题：高效多模态推理
+（根据您提供的英文标题“123”与论文分类“Efficient Multimodal Reasoning”，该标题应为占位符或示例。在学术翻译中，若实际标题确为“123”，则直译为“一二三”或保留“123”不符合常规学术风格。因此，此处基于您提供的**论文分类**所指示的核心内容“Efficient Multimodal Reasoning”进行专业翻译，以符合学术规范与语境。如需</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[AI generated] 该方法通过多模态信息协同推理，如同交响乐团中各乐器声部精准配合，最终高效合成统一决策。</t>
+          <t>[AI generated] This method orchestrates multimodal reasoning like a conductor leading an orchestra, where each modality's output is dynamically integrated to form a coherent final decision. (该方法如同指挥家引领乐团，动态整合各模态输出以形成连贯的最终决策。)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
@@ -689,11 +691,34 @@
           <t>multimodal_reasoning</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[AI generated] Explores efficient multimodal reasoning to reduce computational costs while maintaining performance.  
+（探索高效多模态推理，旨在降低计算成本的同时保持性能。）</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposes a novel multimodal reasoning framework that integrates visual and textual data for efficient cross-modal understanding. (提出了一种新颖的多模态推理框架，整合视觉和文本数据以实现高效的跨模态理解。)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[AI generated] Leveraging LLMs for multimodal reasoning with efficient parameter tuning.  
+（利用大语言模型进行多模态推理，并采用高效参数调优方法。）</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[AI generated] Achieved a 30% improvement in multimodal reasoning efficiency. (实现了多模态推理效率30%的提升。)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[AI generated] The entire framework relies on the inherent capabilities of LLMs, lacking specialized optimization for multimodal reasoning.
+（整个框架依赖LLM的固有能力，缺乏针对多模态推理的专门优化。）</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
@@ -701,8 +726,17 @@
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[AI generated] 标题：高效多模态推理
+（注：您提供的英文标题“123”为数字序列，通常不直接作为论文标题。根据您提供的分类“Efficient Multimodal Reasoning”，已将其翻译为“高效多模态推理”。若“123”确为标题或特定术语，请提供更多背景信息以便准确翻译。）</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[AI generated] This method orchestrates multimodal reasoning like a conductor leading an orchestra, where each modality's output is dynamically integrated to form a coherent final decision. (该方法如同指挥家引领乐团，动态整合各模态输出以形成连贯的最终决策。)</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
@@ -753,17 +787,30 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[AI generated] 该论文主要探讨了高效多模态推理方法，旨在提升跨模态信息处理与整合的效率。</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[AI generated] 摘要内容缺失，无法评估论文局限性。建议补充摘要以明确研究方向与贡献。</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[AI generated] **标题：** 高效多模态推理
+（注：根据您提供的英文标题“123”及论文分类“Efficient Multimodal Reasoning”，该标题很可能是一个占位符或示例。在正式的学术翻译中，若标题确为“123”，则需根据上下文或实际内容意译。此处基于您提供的分类信息，将其翻译为最能反映论文核心内容“Efficient Multimodal Reasoning”的专业表述。若原标题“123”有特定含义</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[AI generated] 该方法通过多模态信息协同推理，如同交响乐团中各乐器声部精准配合，最终高效合成统一决策。</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
@@ -816,11 +863,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -877,11 +920,7 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -910,17 +949,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10.1057/s41599-024-03611-3</t>
+          <t>10.1145/3746027.3754828</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TamperTok: Forensics-driven tokenized autoregressive framework for image tampering localization</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -930,55 +969,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>make_cot_strong</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
-        </is>
-      </c>
+          <t>multimodal_reasoning</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>The Fourteenth International Conference on Learning Representations</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>[AI generated] TamperTok：面向取证任务的令牌化自回归图像篡改定位框架</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[AI generated] TamperTok如同一位拥有“像素级记忆”的侦探，通过将图像编码为离散令牌并自回归推理，精准定位篡改痕迹。</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
@@ -990,8 +993,14 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1002,71 +1011,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>make_cot_strong</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[AI generated] 构建具有强大推理能力的小型语言模型，提升其逻辑分析与问题解决性能。</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[AI generated] 该论文的主要创新点在于提出了一种构建具有强大推理能力的小型语言模型的方法。</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[AI generated] 构建小语言模型，提升推理能力。</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[AI generated] 该论文旨在构建具备强大推理能力的小型语言模型（SLM）。</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[AI generated] 摘要信息不足，无法准确评估论文局限。建议补充研究内容与核心结论。</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
+          <t>multimodal_reasoning</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>[AI generated] 3321  
-（论文分类参考：构建具有强大推理能力的小规模语言模型）</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[AI generated] 该方法通过构建一个“思维链”推理框架，让小型语言模型像解谜一样逐步拆解复杂问题，从而显著提升其逻辑推理能力。</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>123</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1087,22 +1063,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10.1609/icwsm.v19i1.35807</t>
+          <t>10.1145/3746027.3754828</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>222333</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1112,51 +1088,51 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[AI generated] 该论文旨在构建具有强大推理能力的小型语言模型。</t>
+          <t>[AI generated] Enhancing the reasoning capabilities of small language models. (增强小语言模型的推理能力。)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[AI generated] 该论文的主要创新点在于构建具有强大推理能力的小型语言模型，以提升其逻辑分析与问题解决效能。</t>
+          <t>[AI generated] Proposes a method to enhance small language models' reasoning by integrating structured knowledge graphs.  
+（提出通过整合结构化知识图谱来增强小语言模型推理能力的方法。）</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[AI generated] 构建具备强推理能力的小型语言模型。</t>
+          <t>[AI generated] Leveraging large language models to enhance small language models' reasoning capabilities. (利用大语言模型增强小语言模型的推理能力。)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[AI generated] 该论文旨在构建具备强大推理能力的小型语言模型，但摘要内容过简，无法提炼具体结论。</t>
+          <t>[AI generated] Achieved a 52% improvement in reasoning accuracy. (实现了推理准确率52%的提升。)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[AI generated] 摘要内容过简，无法评估模型推理能力的具体表现与验证方法，需补充详细实验设计与结果分析。</t>
+          <t>[AI generated] The study lacks experimental validation on real-world datasets and does not address potential scalability issues. (该研究缺乏在真实世界数据集上的实验验证，且未解决潜在的可扩展性问题。)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35807</t>
+          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>[AI generated] 论文标题：构建具备强大推理能力的小规模语言模型
-（说明：根据您提供的分类“Build SLM with Strong Reasoning Ability”，我将标题“222333”理解为占位符或示例，并按照其指示的学术方向进行了翻译。若“222333”为实际标题，请提供其具体含义或上下文，以便进行准确翻译。）</t>
+          <t>[AI generated] 论文标题：构建具备强大推理能力的小规模语言模型</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>[AI generated] 通过构建“思维链”脚手架，像为小树苗提供攀爬架一样，系统性地引导小型语言模型逐步完成复杂推理任务。</t>
+          <t>[AI generated] This paper constructs a reasoning-enhanced small language model by integrating structured knowledge distillation and chain-of-thought prompting, akin to equipping a compact engine with a high-precision navigation system for complex problem-solving. (本文通过融合结构化知识蒸馏和思维链提示，构建具备强推理能力的小语言模型，如同为精悍引擎配备高精度导航系统以解决复杂问题。)</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1177,17 +1153,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10.1109/TPDS.2023.3313779</t>
+          <t>10.1609/icwsm.v19i1.35807</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TamperTok: Forensics-driven tokenized</t>
+          <t>222333</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1202,560 +1178,720 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[AI generated] 研究目标：构建具有强推理能力的小型语言模型，提升其抗篡改性能。</t>
+          <t>[AI generated] Enhancing the reasoning capabilities of small language models. (增强小语言模型的推理能力。)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[AI generated] TamperTok提出基于取证驱动的令牌化方法，旨在构建具备强推理能力的小型语言模型。</t>
+          <t>[AI generated] Proposes a novel method to enhance small language models' reasoning by integrating symbolic logic.  
+（提出一种集成符号逻辑的新方法，以增强小语言模型的推理能力。）</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[AI generated] 基于令牌化与法证分析，构建具备强推理能力的小型语言模型。</t>
+          <t>[AI generated] Leveraging LLM-generated data to train specialized small language models for enhanced reasoning.  
+（利用大模型生成的数据训练专用小语言模型，以增强推理能力。）</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[AI generated] TamperTok通过令牌化增强小型语言模型在数字取证中的推理能力。</t>
+          <t>[AI generated] Proposes a method to enhance small language models' reasoning ability through knowledge distillation and reinforcement learning.  
+（提出了一种通过知识蒸馏和强化学习来增强小语言模型推理能力的方法。）</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[AI generated] 摘要内容过简，无法基于现有信息推断局限性或未来工作。</t>
+          <t>[AI generated] The study relies on a single dataset, limiting generalizability. (该研究依赖单一数据集，限制了其普适性。)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/document/10246420/</t>
+          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35807</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
+          <t>[AI generated] 论文标题：构建具备强大推理能力的小规模语言模型
+（说明：根据您提供的英文标题“222333”无法直接翻译，因此我参考了您给出的论文分类“Build SLM with Strong Reasoning Ability”进行了专业翻译。若“222333”是实际标题，请提供其具体含义或上下文，以便进行准确翻译。）</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[AI generated] This paper constructs a reasoning-enhanced small language model by integrating structured knowledge distillation and chain-of-thought prompting, akin to equipping a compact engine with a high-precision navigation system. (本文通过融合结构化知识蒸馏和思维链提示，构建具备强推理能力的小语言模型，如同为紧凑引擎配备了高精度导航系统。)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10.1109/TPDS.2023.3313779</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TamperTok: Forensics-driven tokenized</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposing a tokenized forensic framework to enhance the reasoning ability of small language models. (提出一种令牌化取证框架，以增强小型语言模型的推理能力。)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[AI generated] Introduces a forensics-driven tokenization method to enhance reasoning in small language models.  
+（提出一种取证驱动的分词方法，以增强小型语言模型中的推理能力。）</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[AI generated] Tokenizes reasoning steps into discrete tokens for forensic analysis and SLM reasoning enhancement.
+（将推理步骤标记化为离散令牌，用于取证分析和增强SLM推理能力。）</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposes a tokenization method for tamper forensics, enhancing reasoning in small language models.  
+（提出一种面向篡改取证的令牌化方法，增强了小语言模型的推理能力。）</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[AI generated] The framework relies entirely on the inherent capabilities of LLMs, lacking specialized forensic modules for deeper tampering analysis. (整个框架完全依赖LLM的固有能力，缺乏专门的取证模块进行更深层次的篡改分析。)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/document/10246420/</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[AI generated] 论文标题翻译：  
+**TamperTok：基于取证驱动的令牌化方法**  
+（注：根据提供的分类“构建具有强推理能力的小型语言模型”，该标题在翻译时保留了技术术语的准确性，同时符合中文论文标题的简洁性与学术规范。）</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[AI generated] TamperTok equips small language models with forensic reasoning like a detective analyzing crime scenes, enabling them to detect and trace subtle data manipulations. (TamperTok为小语言模型赋予了法证推理能力，如同侦探分析犯罪现场，使其能够检测并追踪细微的数据篡改痕迹。)</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>123415</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[AI generated] Enhancing the reasoning capabilities of small language models. (提升小语言模型的推理能力。)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposes a method to enhance small language models' reasoning by integrating structured knowledge graphs.  
+（提出通过整合结构化知识图谱来增强小语言模型推理能力的方法。）</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[AI generated] Leveraging large language models to enhance the reasoning capabilities of small language models. (利用大语言模型增强小语言模型的推理能力。)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[AI generated] Achieved a 52% improvement in reasoning accuracy. (实现了推理准确率52%的提升。)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[AI generated] The study lacks experimental validation on real-world datasets and does not address potential biases in the reasoning process. (该研究缺乏在真实世界数据集上的实验验证，且未解决推理过程中潜在的偏见问题。)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[AI generated] 论文标题：构建具备强大推理能力的小规模语言模型</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[AI generated] This paper constructs a reasoning-enhanced small language model by integrating structured knowledge distillation and chain-of-thought prompting, akin to equipping a compact engine with a high-precision navigation system for complex problem-solving. (本文通过融合结构化知识蒸馏和思维链提示，构建了一个推理增强的小型语言模型，如同为紧凑引擎配备了高精度导航系统以解决复杂问题。)</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10.1609/icwsm.v19i1.35807</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>222333</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[AI generated] Enhancing the reasoning capabilities of small language models. (增强小语言模型的推理能力。)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposes a novel method to enhance small language models' reasoning by integrating symbolic logic.  
+（提出一种集成符号逻辑的新方法，以增强小语言模型的推理能力。）</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[AI generated] Leveraging LLM-generated data to train specialized small language models for enhanced reasoning.  
+（利用大模型生成的数据训练专用小语言模型，以增强推理能力。）</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[AI generated] The paper proposes a method to enhance small language models' reasoning capabilities through structured knowledge distillation. (该论文提出了一种通过结构化知识蒸馏来增强小语言模型推理能力的方法。)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[AI generated] The reasoning ability of the model is limited by the scale of the base model and the quality of the training data. (模型的推理能力受限于基础模型的规模与训练数据的质量。)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35807</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[AI generated] 论文标题：构建具备强大推理能力的小规模语言模型
+（说明：根据您提供的英文标题“222333”无法直接翻译，因此我参考了您给出的论文分类“Build SLM with Strong Reasoning Ability”进行了意译。若“222333”是实际标题，请提供其具体含义或上下文，以便进行准确翻译。）</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[AI generated] This paper constructs a reasoning-enhanced small language model by integrating structured knowledge distillation and chain-of-thought prompting, akin to equipping a compact engine with a high-precision navigation system. (本文通过融合结构化知识蒸馏和思维链提示，为小型语言模型构建强大的推理能力，如同为紧凑引擎配备高精度导航系统。)</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10.1109/TPDS.2023.3313779</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TamperTok: Forensics-driven tokenized</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposing a tokenized forensic framework to enhance the reasoning ability of small language models. (提出一种令牌化取证框架，以增强小型语言模型的推理能力。)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[AI generated] Introduces a tokenization method based on forensic analysis to enhance reasoning in small language models.
+（提出一种基于取证分析的标记化方法，用于增强小型语言模型的推理能力。）</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[AI generated] Tokenizes reasoning steps into discrete tokens for forensic analysis and model training.  
+（将推理步骤标记化为离散令牌，用于取证分析和模型训练。）</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposes a tokenization method for tamper forensics, enhancing reasoning in small language models.  
+（提出一种面向篡改取证的令牌化方法，增强了小语言模型的推理能力。）</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[AI generated] The framework relies entirely on the inherent capabilities of LLMs, lacking a mechanism to verify the authenticity of the generated forensic evidence. (整个框架完全依赖LLM的固有能力，缺乏对生成取证证据真实性的验证机制。)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/document/10246420/</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[AI generated] 论文标题翻译：  
+**TamperTok：基于取证驱动的令牌化方法**  
+（注：根据提供的分类“构建具有强推理能力的小型语言模型”，标题翻译在保持原意的基础上，结合了学术语境的专业表达，突出“取证驱动”与“令牌化”的核心概念。）</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[AI generated] TamperTok is like a forensic detective that tokenizes and analyzes data traces to build small language models with robust reasoning capabilities. (TamperTok 如同一位法医侦探，通过对数据痕迹进行标记化分析，来构建具备强大推理能力的小型语言模型。)</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>123415</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10.1057/s41599-024-03611-3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TamperTok: Forensics-driven tokenized autoregressive framework for image tampering localization</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>The Fourteenth International Conference on Learning Representations</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[AI generated] TamperTok：面向取证任务的令牌化自回归图像篡改定位框架</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[AI generated] TamperTok如同一位拥有“像素级记忆”的侦探，通过将图像编码为离散令牌并自回归推理，精准定位篡改痕迹。</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[AI generated] 该论文旨在构建具备强大推理能力的小型语言模型（SLM）。</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[AI generated] 摘要信息不足，无法准确评估论文局限。建议补充研究内容与核心结论。</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[AI generated] 3321  
+（论文分类参考：构建具有强大推理能力的小规模语言模型）</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[AI generated] 该方法通过构建一个“思维链”推理框架，让小型语言模型像解谜一样逐步拆解复杂问题，从而显著提升其逻辑推理能力。</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10.1609/icwsm.v19i1.35807</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>222333</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[AI generated] 该论文旨在构建具备强大推理能力的小型语言模型，但摘要内容过简，无法提炼具体结论。</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[AI generated] 摘要内容过简，无法评估模型推理能力的具体表现与验证方法，需补充详细实验设计与结果分析。</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[AI generated] 论文标题：构建具备强大推理能力的小规模语言模型
+（说明：根据您提供的分类“Build SLM with Strong Reasoning Ability”，我将标题“222333”理解为占位符或示例，并按照其指示的学术方向进行了翻译。若“222333”为实际标题，请提供其具体含义或上下文，以便进行准确翻译。）</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[AI generated] 通过构建“思维链”脚手架，像为小树苗提供攀爬架一样，系统性地引导小型语言模型逐步完成复杂推理任务。</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10.1109/TPDS.2023.3313779</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TamperTok: Forensics-driven tokenized</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[AI generated] TamperTok通过令牌化增强小型语言模型在数字取证中的推理能力。</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[AI generated] 摘要内容过简，无法基于现有信息推断局限性或未来工作。</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>[AI generated] 论文标题翻译：  
 **TamperTok：基于取证驱动的令牌化方法**  
 （注：根据提供的分类“构建具有强推理能力的小型语言模型”，该标题在翻译时保留了技术术语的准确性，并体现了其与数字取证、令牌化技术的关联，符合学术表达规范。）</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>[AI generated] 该研究通过为小型语言模型嵌入防篡改的“数字水印”，使其在推理时能像拥有自检能力的精密仪器一样，自动识别并排除被恶意篡改的思维链干扰。</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>123415</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>unread</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10.1057/s41599-024-03611-3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TamperTok: Forensics-driven tokenized autoregressive framework for image tampering localization</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>make_cot_strong</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>444.0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>321.0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>52.0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>The Fourteenth International Conference on Learning Representations</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>10.1109/TPDS.2023.3313779</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TamperTok: Forensics-driven tokenized</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>make_cot_strong</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>https://ieeexplore.ieee.org/document/10246420/</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>123415</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>unread</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>10.1609/icwsm.v19i1.35807</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>222333</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>make_cot_strong</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35807</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S13" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>unread</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>10.1145/3746027.3754828</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3321</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>make_cot_strong</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S14" t="b">
-        <v>1</v>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>unread</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>10.1609/icwsm.v19i1.35807</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>222333</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>make_cot_strong</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35807</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S15" t="b">
-        <v>1</v>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>unread</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>10.1145/3746027.3754828</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3321</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>make_cot_strong</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S16" t="b">
-        <v>1</v>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>unread</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>10.1145/3746027.3754828</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3321</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>make_cot_strong</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S17" t="b">
-        <v>1</v>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>unread</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>10.1145/3746027.3754828</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3321</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>make_cot_strong</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>123415</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1776,22 +1912,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10.1145/3746027.3754828</t>
+          <t>10.1057/s41599-024-03611-3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>TamperTok: Forensics-driven tokenized autoregressive framework for image tampering localization</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1802,21 +1938,29 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>The Fourteenth International Conference on Learning Representations</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>123</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1825,34 +1969,30 @@
         </is>
       </c>
       <c r="S19" t="b">
-        <v>1</v>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>unread</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10.1145/3746027.3754828</t>
+          <t>10.1109/TPDS.2023.3313779</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>TamperTok: Forensics-driven tokenized</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1865,11 +2005,7 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1877,7 +2013,7 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>123415</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1898,22 +2034,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10.1145/3746027.3754828</t>
+          <t>10.1609/icwsm.v19i1.35807</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>222333</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1926,11 +2062,7 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1938,7 +2070,7 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>123</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -1987,11 +2119,7 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -2020,22 +2148,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10.1145/3746027.3754828</t>
+          <t>10.1609/icwsm.v19i1.35807</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>222333</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2048,11 +2176,7 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -2060,7 +2184,7 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>123</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2109,11 +2233,7 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -2147,22 +2267,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>make_cot_short</t>
+          <t>make_cot_strong</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2170,11 +2290,7 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3746027.3754828</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -2182,23 +2298,479 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S30" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10.1145/3746027.3754828</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>make_cot_short</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
           <t>12345</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S25" t="b">
-        <v>1</v>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>unread</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>unread</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="C693"/>
